--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1121.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1121.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.125004142528001</v>
+        <v>1.165461182594299</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.371947288513184</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.391100168228149</v>
       </c>
       <c r="E1">
-        <v>1.156561304148738</v>
+        <v>1.215088605880737</v>
       </c>
     </row>
   </sheetData>
